--- a/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2707195471091335</v>
+        <v>0.2718468113292287</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3737588325807016</v>
+        <v>0.3743195797891652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.4389614808255563</v>
+        <v>0.4366466511887355</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2542430435570665</v>
+        <v>0.2527309768096593</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3726825950814428</v>
+        <v>0.3757786446627812</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3356315247026248</v>
+        <v>0.3372074172389229</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.4646953052416466</v>
+        <v>0.4669536176838626</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2571542084388093</v>
+        <v>0.2580057184800905</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3374217004292204</v>
+        <v>0.3364395776704759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3626696155545443</v>
+        <v>0.3606830850134712</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.4638828807164581</v>
+        <v>0.4639779124898246</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.262136753792055</v>
+        <v>0.2617538799028893</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3287230999645532</v>
+        <v>0.3291110358464804</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4418581188910477</v>
+        <v>0.4391592173432267</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.510918829556179</v>
+        <v>0.5105995450478984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3275798771083923</v>
+        <v>0.3241756715131173</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4292155692228169</v>
+        <v>0.4299003218142954</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3878179368466376</v>
+        <v>0.3900447393945489</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.5305109761744918</v>
+        <v>0.5318285474181482</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3060844178032029</v>
+        <v>0.3071391845676089</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3781168137251347</v>
+        <v>0.3766510524628581</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.4038491944159704</v>
+        <v>0.4017873913431899</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5123868323185626</v>
+        <v>0.5121250579221505</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3061969542769906</v>
+        <v>0.3067541062563583</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1284526356562688</v>
+        <v>0.128174687130089</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2793207633453202</v>
+        <v>0.2789889883840422</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3204240338672812</v>
+        <v>0.3236372862260805</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1255481457478791</v>
+        <v>0.1268928270014422</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.203131725891308</v>
+        <v>0.2039210532418789</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.300688192110724</v>
+        <v>0.301586168626351</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3256909964440594</v>
+        <v>0.3236857524119149</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1493944870356484</v>
+        <v>0.1490762153861072</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1702606572891079</v>
+        <v>0.1706683782173851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2958932326836247</v>
+        <v>0.2966835983079557</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3278293748509734</v>
+        <v>0.3292078739955427</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1421159720411453</v>
+        <v>0.1419280732811145</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1633579554233252</v>
+        <v>0.163282300069722</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.322480617004466</v>
+        <v>0.3229582546241514</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3650877066510588</v>
+        <v>0.3653127889555201</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1600502547712814</v>
+        <v>0.1608014290445156</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2464498284437852</v>
+        <v>0.244015394436494</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3491477881077053</v>
+        <v>0.348141365655107</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3698809731295413</v>
+        <v>0.3686706374106996</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1793832040907997</v>
+        <v>0.179949199182821</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1976578551674119</v>
+        <v>0.1977360794887554</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3270765004600628</v>
+        <v>0.328099974693692</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3588391901148142</v>
+        <v>0.3603278731581304</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1656282034070694</v>
+        <v>0.1642338596987065</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +957,7 @@
         <v>0.1404514978143535</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.05767699983985132</v>
+        <v>0.05767699983985131</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.09267384398743851</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04997793903623506</v>
+        <v>0.05001155877780184</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0954068013573348</v>
+        <v>0.09310769739671916</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08354676509325218</v>
+        <v>0.08248640777285239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01830950507091292</v>
+        <v>0.01922105851375815</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09051256546175669</v>
+        <v>0.0921468737069617</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1173686706564059</v>
+        <v>0.1141580785022317</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1127957717272236</v>
+        <v>0.1143977351890104</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0426105808218185</v>
+        <v>0.04232697346566747</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.07526360558669815</v>
+        <v>0.07549597625976724</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1118132547325843</v>
+        <v>0.1121125871908492</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1032978765092206</v>
+        <v>0.1055154215520724</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03428219281532457</v>
+        <v>0.03480375281439977</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.09364856185118377</v>
+        <v>0.09477474441713413</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1586454712002051</v>
+        <v>0.16162709986267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1375017785700003</v>
+        <v>0.1366324644291338</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04916225951265582</v>
+        <v>0.05141428628130042</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1532435921546492</v>
+        <v>0.1554949895475109</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1832092891365187</v>
+        <v>0.1851955368086134</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1757994256853174</v>
+        <v>0.1743084853034554</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.07904100125917941</v>
+        <v>0.07780789115785754</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1148696399582489</v>
+        <v>0.1123039916613177</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1592409191636054</v>
+        <v>0.16166851955194</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1471367931494154</v>
+        <v>0.1475321400602055</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05815278280616946</v>
+        <v>0.05878640964388718</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2919015140896732</v>
+        <v>0.289618311415339</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3178398422571127</v>
+        <v>0.31678875262821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1304308593182729</v>
+        <v>0.1311076543928618</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3000980553375811</v>
+        <v>0.2994633644537888</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3409184780922265</v>
+        <v>0.3401128898331376</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1578665483949151</v>
+        <v>0.157684381968925</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.299444728381895</v>
+        <v>0.299744129365747</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3345148782253871</v>
+        <v>0.3333331540112371</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1482541747220992</v>
+        <v>0.1480695386993848</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3238760989257124</v>
+        <v>0.320341449570003</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.350673417821986</v>
+        <v>0.3507211910606464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1571225106089056</v>
+        <v>0.1580414268863335</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3327445600196953</v>
+        <v>0.3329012997657753</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3747494575504083</v>
+        <v>0.3730239286318676</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1814279539651346</v>
+        <v>0.1803064643839306</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3234971169282431</v>
+        <v>0.3226965764767466</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3581621563809296</v>
+        <v>0.3578321591123753</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1653268461291947</v>
+        <v>0.1645085653799081</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>273500</v>
+        <v>274639</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>361829</v>
+        <v>362372</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>328035</v>
+        <v>326305</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>143885</v>
+        <v>143029</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>478318</v>
+        <v>482292</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>446511</v>
+        <v>448608</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>459337</v>
+        <v>461570</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>208387</v>
+        <v>209077</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>773950</v>
+        <v>771697</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>833575</v>
+        <v>829009</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>805194</v>
+        <v>805358</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>360776</v>
+        <v>360250</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>332099</v>
+        <v>332491</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>427754</v>
+        <v>425142</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>381809</v>
+        <v>381570</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>185388</v>
+        <v>183462</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>550875</v>
+        <v>551754</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>515938</v>
+        <v>518900</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>524394</v>
+        <v>525697</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>248038</v>
+        <v>248893</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>867293</v>
+        <v>863931</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>928224</v>
+        <v>923485</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>889385</v>
+        <v>888931</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>421416</v>
+        <v>422183</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>215012</v>
+        <v>214546</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>547144</v>
+        <v>546494</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>659520</v>
+        <v>666134</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>276134</v>
+        <v>279092</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>317270</v>
+        <v>318503</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>526381</v>
+        <v>527953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>644153</v>
+        <v>640187</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>322325</v>
+        <v>321639</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>550921</v>
+        <v>552240</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1097593</v>
+        <v>1100525</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1323145</v>
+        <v>1328708</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>619195</v>
+        <v>618377</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>273438</v>
+        <v>273312</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>631687</v>
+        <v>632623</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>751450</v>
+        <v>751913</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>352019</v>
+        <v>353671</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>384928</v>
+        <v>381126</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>611213</v>
+        <v>609451</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>731552</v>
+        <v>729158</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>387028</v>
+        <v>388249</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>639572</v>
+        <v>639825</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1213265</v>
+        <v>1217062</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1448303</v>
+        <v>1454311</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>721638</v>
+        <v>715562</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>27323</v>
+        <v>27341</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>45340</v>
+        <v>44247</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>45531</v>
+        <v>44953</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>12954</v>
+        <v>13598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>42508</v>
+        <v>43275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>53719</v>
+        <v>52250</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>61821</v>
+        <v>62699</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>30833</v>
+        <v>30628</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>76493</v>
+        <v>76729</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>104313</v>
+        <v>104593</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>112910</v>
+        <v>115334</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>49060</v>
+        <v>49807</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>51198</v>
+        <v>51813</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75393</v>
+        <v>76810</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>74936</v>
+        <v>74462</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>34781</v>
+        <v>36374</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>71968</v>
+        <v>73025</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>83854</v>
+        <v>84763</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>96351</v>
+        <v>95534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>57194</v>
+        <v>56301</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>116746</v>
+        <v>114138</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>148560</v>
+        <v>150825</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>160829</v>
+        <v>161261</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>83221</v>
+        <v>84127</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>993092</v>
+        <v>985324</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1064938</v>
+        <v>1061417</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>452965</v>
+        <v>455316</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1061940</v>
+        <v>1059694</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1198107</v>
+        <v>1195276</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>582764</v>
+        <v>582091</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>2078383</v>
+        <v>2080461</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2296412</v>
+        <v>2288299</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1062142</v>
+        <v>1060820</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1101874</v>
+        <v>1089849</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1174949</v>
+        <v>1175109</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>545661</v>
+        <v>548852</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1177464</v>
+        <v>1178019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>1317001</v>
+        <v>1310937</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>669741</v>
+        <v>665601</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>2245326</v>
+        <v>2239769</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>2458748</v>
+        <v>2456482</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1184457</v>
+        <v>1178594</v>
       </c>
     </row>
     <row r="20">
